--- a/final_results/3/github/github_language_statistics.xlsx
+++ b/final_results/3/github/github_language_statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,176 +468,401 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>c#</t>
+          <t>objective-c</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>python</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>kotlin</t>
+          <t>go</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>typescript</t>
+          <t>ruby</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>12.33</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>javascript</t>
+          <t>java</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>python</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>css</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>scala</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>groovy</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>typescript</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>coffeescript</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>erlang</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>lex</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/final_results/3/github/github_language_statistics.xlsx
+++ b/final_results/3/github/github_language_statistics.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -534,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">

--- a/final_results/3/github/github_language_statistics.xlsx
+++ b/final_results/3/github/github_language_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/3/results/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F44550-DCF1-FB49-940A-CB71E4943B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B3D43-9A93-B846-9D2A-EA3F6695254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35260" yWindow="1700" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,6 +163,5517 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Num_repos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD5C-F940-8C21-2194C7D21AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1683409007"/>
+        <c:axId val="1683552319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1683409007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683552319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1683552319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683409007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F69-FB4D-B058-CA2061384312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1683409007"/>
+        <c:axId val="1683552319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1683409007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683552319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1683552319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683409007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E93D-7B40-952D-0F1915EB8FB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1683409007"/>
+        <c:axId val="1683552319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1683409007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683552319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1683552319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683409007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total_jobs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFF3-684E-ADF2-85DEBE8E4013}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1683409007"/>
+        <c:axId val="1683552319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1683409007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683552319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1683552319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683409007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DCD-8B4F-BBF7-C7ABF9B8810F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1683409007"/>
+        <c:axId val="1683552319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1683409007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683552319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1683552319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683409007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>objective-c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ruby</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2F4-014A-8EBF-3D25BB16227D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1683409007"/>
+        <c:axId val="1683552319"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1683409007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683552319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1683552319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1683409007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB6943D-A85F-804D-A02C-89742019CD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A191910F-B7B1-8C43-91FA-B496F08261C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F79A3B-9326-3541-9481-AED8D901C730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF3E57B7-8325-C442-966D-503FE40245E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1998F6CD-B4D3-6B4C-A7F8-942BEE4688DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24FFC2-6108-E84A-8094-9A50FFF172CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -451,12 +5962,14 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G17"/>
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,5 +6365,6 @@
     <sortCondition descending="1" ref="B2:B17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>